--- a/project.xlsx
+++ b/project.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anis.abid\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANIS ABID\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="121">
   <si>
     <t>domino's pizza</t>
   </si>
@@ -392,6 +392,21 @@
   </si>
   <si>
     <t>www.chaumet.fr</t>
+  </si>
+  <si>
+    <t>Radio Canada</t>
+  </si>
+  <si>
+    <t>http://ici.radio-canada.ca/sports</t>
+  </si>
+  <si>
+    <t>HULK</t>
+  </si>
+  <si>
+    <t>HULK-PROCEDURES BO</t>
+  </si>
+  <si>
+    <t>HULK-PROCEDURES FO</t>
   </si>
 </sst>
 </file>
@@ -446,7 +461,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,6 +471,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -472,7 +493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -503,12 +524,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -521,6 +536,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -803,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H65"/>
+  <dimension ref="A2:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,14 +844,14 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -1005,7 +1029,7 @@
       <c r="B14" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -1014,7 +1038,7 @@
       <c r="E14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="13" t="s">
         <v>95</v>
       </c>
       <c r="G14" s="5"/>
@@ -1024,7 +1048,7 @@
       <c r="B15" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1033,7 +1057,7 @@
       <c r="E15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="13">
         <v>2014</v>
       </c>
       <c r="G15" s="5"/>
@@ -1046,7 +1070,7 @@
       <c r="B16" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -1055,7 +1079,7 @@
       <c r="E16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1063,361 +1087,367 @@
       <c r="B17" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>103</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>105</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="15"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>117</v>
+      </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="5">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>1</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="8">
-        <v>41000</v>
-      </c>
-      <c r="G21" s="8">
-        <v>41000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>2</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>0</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F22" s="8">
-        <v>40848</v>
+        <v>41000</v>
       </c>
       <c r="G22" s="8">
-        <v>40940</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F23" s="8">
-        <v>40664</v>
+        <v>40848</v>
       </c>
       <c r="G23" s="8">
-        <v>40695</v>
+        <v>40940</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F24" s="8">
-        <v>40603</v>
+        <v>40664</v>
       </c>
       <c r="G24" s="8">
-        <v>40634</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+        <v>40695</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="F25" s="8">
+        <v>40603</v>
+      </c>
+      <c r="G25" s="8">
+        <v>40634</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E28" s="7"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
+        <v>8</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>9</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F30" s="8">
         <v>41030</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G30" s="8">
         <v>41183</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+    <row r="31" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>10</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>11</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>12</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F33" s="8">
         <v>41640</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G33" s="8">
         <v>41730</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="8">
-        <v>41082</v>
-      </c>
-      <c r="G33" s="8">
-        <v>41934</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="D34" s="6"/>
       <c r="E34" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F34" s="8">
-        <v>40837</v>
+        <v>41082</v>
       </c>
       <c r="G34" s="8">
-        <v>40868</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+        <v>41934</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F35" s="8">
+        <v>40837</v>
+      </c>
+      <c r="G35" s="8">
+        <v>40868</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="8">
-        <v>41002</v>
-      </c>
-      <c r="G36" s="8">
-        <v>41032</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>64</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C37" s="6"/>
       <c r="D37" s="6" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="F37" s="8">
+        <v>41002</v>
+      </c>
+      <c r="G37" s="8">
+        <v>41032</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="D38" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -1425,165 +1455,167 @@
     <row r="39" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>107</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C39" s="7"/>
       <c r="D39" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>111</v>
+        <v>106</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>115</v>
+        <v>13</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+    <row r="42" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="5">
+        <v>13</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+    </row>
+    <row r="45" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
         <v>1</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="7" t="s">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F45" s="8">
         <v>41609</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G45" s="8">
         <v>41671</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+    <row r="46" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <v>2</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B46" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F46" s="9">
         <v>41640</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G46" s="9">
         <v>41671</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>3</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="2"/>
+      <c r="D48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1593,10 +1625,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1606,102 +1638,121 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C51" s="1"/>
-      <c r="D51" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="D51" s="1"/>
       <c r="E51" s="2"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
       <c r="E53" s="2"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="D54" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>83</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E54" s="2"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="2"/>
+      <c r="D55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>13</v>
-      </c>
-      <c r="B56" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
+      <c r="A57" s="19">
+        <v>13</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
+      <c r="A58" s="19">
+        <v>14</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
+      <c r="A59" s="19">
+        <v>15</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="2"/>
@@ -1725,6 +1776,9 @@
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -1733,10 +1787,13 @@
     <row r="65" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E65" s="2"/>
     </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B21:G21"/>
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
